--- a/natmiOut/OldD4/LR-pairs_lrc2p/F10-F3.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/F10-F3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>F10</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.09417142726933</v>
+        <v>2.302434</v>
       </c>
       <c r="H2">
-        <v>2.09417142726933</v>
+        <v>6.907302</v>
       </c>
       <c r="I2">
-        <v>0.06062857230606222</v>
+        <v>0.04159862281395117</v>
       </c>
       <c r="J2">
-        <v>0.06062857230606222</v>
+        <v>0.04160827812275102</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>53.4215397201124</v>
+        <v>0.4264516666666667</v>
       </c>
       <c r="N2">
-        <v>53.4215397201124</v>
+        <v>1.279355</v>
       </c>
       <c r="O2">
-        <v>0.9485637706499539</v>
+        <v>0.00694733498901017</v>
       </c>
       <c r="P2">
-        <v>0.9485637706499539</v>
+        <v>0.007062248329551709</v>
       </c>
       <c r="Q2">
-        <v>111.873862082593</v>
+        <v>0.9818768166899999</v>
       </c>
       <c r="R2">
-        <v>111.873862082593</v>
+        <v>8.836891350209999</v>
       </c>
       <c r="S2">
-        <v>0.05751006715576176</v>
+        <v>0.0002889995677699997</v>
       </c>
       <c r="T2">
-        <v>0.05751006715576176</v>
+        <v>0.0002938479926679214</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,309 +587,1177 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.09417142726933</v>
+        <v>2.302434</v>
       </c>
       <c r="H3">
-        <v>2.09417142726933</v>
+        <v>6.907302</v>
       </c>
       <c r="I3">
-        <v>0.06062857230606222</v>
+        <v>0.04159862281395117</v>
       </c>
       <c r="J3">
-        <v>0.06062857230606222</v>
+        <v>0.04160827812275102</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.89680320321902</v>
+        <v>56.94961366666666</v>
       </c>
       <c r="N3">
-        <v>2.89680320321902</v>
+        <v>170.848841</v>
       </c>
       <c r="O3">
-        <v>0.05143622935004609</v>
+        <v>0.9277676101716374</v>
       </c>
       <c r="P3">
-        <v>0.05143622935004609</v>
+        <v>0.9431134766801204</v>
       </c>
       <c r="Q3">
-        <v>6.066402498603542</v>
+        <v>131.122726792998</v>
       </c>
       <c r="R3">
-        <v>6.066402498603542</v>
+        <v>1180.104541136982</v>
       </c>
       <c r="S3">
-        <v>0.003118505150300469</v>
+        <v>0.03859385487453083</v>
       </c>
       <c r="T3">
-        <v>0.003118505150300469</v>
+        <v>0.03924132783902111</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.0052906458067</v>
+        <v>2.302434</v>
       </c>
       <c r="H4">
-        <v>10.0052906458067</v>
+        <v>6.907302</v>
       </c>
       <c r="I4">
-        <v>0.2896641981948139</v>
+        <v>0.04159862281395117</v>
       </c>
       <c r="J4">
-        <v>0.2896641981948139</v>
+        <v>0.04160827812275102</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>53.4215397201124</v>
+        <v>0.3517459999999999</v>
       </c>
       <c r="N4">
-        <v>53.4215397201124</v>
+        <v>1.055238</v>
       </c>
       <c r="O4">
-        <v>0.9485637706499539</v>
+        <v>0.005730303066102147</v>
       </c>
       <c r="P4">
-        <v>0.9485637706499539</v>
+        <v>0.005825085924375552</v>
       </c>
       <c r="Q4">
-        <v>534.4980316462317</v>
+        <v>0.8098719497639998</v>
       </c>
       <c r="R4">
-        <v>534.4980316462317</v>
+        <v>7.288847547875999</v>
       </c>
       <c r="S4">
-        <v>0.2747649640619682</v>
+        <v>0.0002383727158564111</v>
       </c>
       <c r="T4">
-        <v>0.2747649640619682</v>
+        <v>0.0002423717952303402</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.0052906458067</v>
+        <v>2.302434</v>
       </c>
       <c r="H5">
-        <v>10.0052906458067</v>
+        <v>6.907302</v>
       </c>
       <c r="I5">
-        <v>0.2896641981948139</v>
+        <v>0.04159862281395117</v>
       </c>
       <c r="J5">
-        <v>0.2896641981948139</v>
+        <v>0.04160827812275102</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>2.89680320321902</v>
+        <v>0.6592749999999999</v>
       </c>
       <c r="N5">
-        <v>2.89680320321902</v>
+        <v>1.977825</v>
       </c>
       <c r="O5">
-        <v>0.05143622935004609</v>
+        <v>0.01074026585634092</v>
       </c>
       <c r="P5">
-        <v>0.05143622935004609</v>
+        <v>0.01091791668645185</v>
       </c>
       <c r="Q5">
-        <v>28.98335799191014</v>
+        <v>1.51793717535</v>
       </c>
       <c r="R5">
-        <v>28.98335799191014</v>
+        <v>13.66143457815</v>
       </c>
       <c r="S5">
-        <v>0.01489923413284565</v>
+        <v>0.0004467802682794842</v>
       </c>
       <c r="T5">
-        <v>0.01489923413284565</v>
+        <v>0.0004542757140109129</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>22.4415364630207</v>
+        <v>2.302434</v>
       </c>
       <c r="H6">
-        <v>22.4415364630207</v>
+        <v>6.907302</v>
       </c>
       <c r="I6">
-        <v>0.6497072294991239</v>
+        <v>0.04159862281395117</v>
       </c>
       <c r="J6">
-        <v>0.6497072294991239</v>
+        <v>0.04160827812275102</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>53.4215397201124</v>
+        <v>2.9964035</v>
       </c>
       <c r="N6">
-        <v>53.4215397201124</v>
+        <v>5.992807</v>
       </c>
       <c r="O6">
-        <v>0.9485637706499539</v>
+        <v>0.04881448591690938</v>
       </c>
       <c r="P6">
-        <v>0.9485637706499539</v>
+        <v>0.03308127237950044</v>
       </c>
       <c r="Q6">
-        <v>1198.861431539611</v>
+        <v>6.899021296119</v>
       </c>
       <c r="R6">
-        <v>1198.861431539611</v>
+        <v>41.394127776714</v>
       </c>
       <c r="S6">
-        <v>0.6162887394322238</v>
+        <v>0.002030615387514445</v>
       </c>
       <c r="T6">
-        <v>0.6162887394322238</v>
+        <v>0.001376454781820736</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>12.84771233333333</v>
+      </c>
+      <c r="H7">
+        <v>38.543137</v>
+      </c>
+      <c r="I7">
+        <v>0.232122675124013</v>
+      </c>
+      <c r="J7">
+        <v>0.2321765522948462</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.4264516666666667</v>
+      </c>
+      <c r="N7">
+        <v>1.279355</v>
+      </c>
+      <c r="O7">
+        <v>0.00694733498901017</v>
+      </c>
+      <c r="P7">
+        <v>0.007062248329551709</v>
+      </c>
+      <c r="Q7">
+        <v>5.47892833740389</v>
+      </c>
+      <c r="R7">
+        <v>49.310355036635</v>
+      </c>
+      <c r="S7">
+        <v>0.001612633982631696</v>
+      </c>
+      <c r="T7">
+        <v>0.001639688468605353</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>12.84771233333333</v>
+      </c>
+      <c r="H8">
+        <v>38.543137</v>
+      </c>
+      <c r="I8">
+        <v>0.232122675124013</v>
+      </c>
+      <c r="J8">
+        <v>0.2321765522948462</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>56.94961366666666</v>
+      </c>
+      <c r="N8">
+        <v>170.848841</v>
+      </c>
+      <c r="O8">
+        <v>0.9277676101716374</v>
+      </c>
+      <c r="P8">
+        <v>0.9431134766801204</v>
+      </c>
+      <c r="Q8">
+        <v>731.6722538838019</v>
+      </c>
+      <c r="R8">
+        <v>6585.050284954217</v>
+      </c>
+      <c r="S8">
+        <v>0.215355899566453</v>
+      </c>
+      <c r="T8">
+        <v>0.2189688354383962</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>12.84771233333333</v>
+      </c>
+      <c r="H9">
+        <v>38.543137</v>
+      </c>
+      <c r="I9">
+        <v>0.232122675124013</v>
+      </c>
+      <c r="J9">
+        <v>0.2321765522948462</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.3517459999999999</v>
+      </c>
+      <c r="N9">
+        <v>1.055238</v>
+      </c>
+      <c r="O9">
+        <v>0.005730303066102147</v>
+      </c>
+      <c r="P9">
+        <v>0.005825085924375552</v>
+      </c>
+      <c r="Q9">
+        <v>4.519131422400666</v>
+      </c>
+      <c r="R9">
+        <v>40.672182801606</v>
+      </c>
+      <c r="S9">
+        <v>0.001330133276974965</v>
+      </c>
+      <c r="T9">
+        <v>0.001352448366742753</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>12.84771233333333</v>
+      </c>
+      <c r="H10">
+        <v>38.543137</v>
+      </c>
+      <c r="I10">
+        <v>0.232122675124013</v>
+      </c>
+      <c r="J10">
+        <v>0.2321765522948462</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.6592749999999999</v>
+      </c>
+      <c r="N10">
+        <v>1.977825</v>
+      </c>
+      <c r="O10">
+        <v>0.01074026585634092</v>
+      </c>
+      <c r="P10">
+        <v>0.01091791668645185</v>
+      </c>
+      <c r="Q10">
+        <v>8.470175548558332</v>
+      </c>
+      <c r="R10">
+        <v>76.231579937025</v>
+      </c>
+      <c r="S10">
+        <v>0.002493059242116953</v>
+      </c>
+      <c r="T10">
+        <v>0.002534884254502762</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>12.84771233333333</v>
+      </c>
+      <c r="H11">
+        <v>38.543137</v>
+      </c>
+      <c r="I11">
+        <v>0.232122675124013</v>
+      </c>
+      <c r="J11">
+        <v>0.2321765522948462</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2.9964035</v>
+      </c>
+      <c r="N11">
+        <v>5.992807</v>
+      </c>
+      <c r="O11">
+        <v>0.04881448591690938</v>
+      </c>
+      <c r="P11">
+        <v>0.03308127237950044</v>
+      </c>
+      <c r="Q11">
+        <v>38.49693020259317</v>
+      </c>
+      <c r="R11">
+        <v>230.981581215559</v>
+      </c>
+      <c r="S11">
+        <v>0.01133094905583647</v>
+      </c>
+      <c r="T11">
+        <v>0.007680695766599135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>40.16012566666667</v>
+      </c>
+      <c r="H12">
+        <v>120.480377</v>
+      </c>
+      <c r="I12">
+        <v>0.7255825442851113</v>
+      </c>
+      <c r="J12">
+        <v>0.725750956675978</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.4264516666666667</v>
+      </c>
+      <c r="N12">
+        <v>1.279355</v>
+      </c>
+      <c r="O12">
+        <v>0.00694733498901017</v>
+      </c>
+      <c r="P12">
+        <v>0.007062248329551709</v>
+      </c>
+      <c r="Q12">
+        <v>17.12635252409278</v>
+      </c>
+      <c r="R12">
+        <v>154.137172716835</v>
+      </c>
+      <c r="S12">
+        <v>0.005040864997326974</v>
+      </c>
+      <c r="T12">
+        <v>0.00512543348145548</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>26</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>22.4415364630207</v>
-      </c>
-      <c r="H7">
-        <v>22.4415364630207</v>
-      </c>
-      <c r="I7">
-        <v>0.6497072294991239</v>
-      </c>
-      <c r="J7">
-        <v>0.6497072294991239</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>2.89680320321902</v>
-      </c>
-      <c r="N7">
-        <v>2.89680320321902</v>
-      </c>
-      <c r="O7">
-        <v>0.05143622935004609</v>
-      </c>
-      <c r="P7">
-        <v>0.05143622935004609</v>
-      </c>
-      <c r="Q7">
-        <v>65.0087147112348</v>
-      </c>
-      <c r="R7">
-        <v>65.0087147112348</v>
-      </c>
-      <c r="S7">
-        <v>0.03341849006689997</v>
-      </c>
-      <c r="T7">
-        <v>0.03341849006689997</v>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>40.16012566666667</v>
+      </c>
+      <c r="H13">
+        <v>120.480377</v>
+      </c>
+      <c r="I13">
+        <v>0.7255825442851113</v>
+      </c>
+      <c r="J13">
+        <v>0.725750956675978</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>56.94961366666666</v>
+      </c>
+      <c r="N13">
+        <v>170.848841</v>
+      </c>
+      <c r="O13">
+        <v>0.9277676101716374</v>
+      </c>
+      <c r="P13">
+        <v>0.9431134766801204</v>
+      </c>
+      <c r="Q13">
+        <v>2287.103641521451</v>
+      </c>
+      <c r="R13">
+        <v>20583.93277369306</v>
+      </c>
+      <c r="S13">
+        <v>0.673171983093654</v>
+      </c>
+      <c r="T13">
+        <v>0.684465507954605</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>40.16012566666667</v>
+      </c>
+      <c r="H14">
+        <v>120.480377</v>
+      </c>
+      <c r="I14">
+        <v>0.7255825442851113</v>
+      </c>
+      <c r="J14">
+        <v>0.725750956675978</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.3517459999999999</v>
+      </c>
+      <c r="N14">
+        <v>1.055238</v>
+      </c>
+      <c r="O14">
+        <v>0.005730303066102147</v>
+      </c>
+      <c r="P14">
+        <v>0.005825085924375552</v>
+      </c>
+      <c r="Q14">
+        <v>14.12616356274733</v>
+      </c>
+      <c r="R14">
+        <v>127.135472064726</v>
+      </c>
+      <c r="S14">
+        <v>0.00415780787822717</v>
+      </c>
+      <c r="T14">
+        <v>0.004227561682335331</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>40.16012566666667</v>
+      </c>
+      <c r="H15">
+        <v>120.480377</v>
+      </c>
+      <c r="I15">
+        <v>0.7255825442851113</v>
+      </c>
+      <c r="J15">
+        <v>0.725750956675978</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.6592749999999999</v>
+      </c>
+      <c r="N15">
+        <v>1.977825</v>
+      </c>
+      <c r="O15">
+        <v>0.01074026585634092</v>
+      </c>
+      <c r="P15">
+        <v>0.01091791668645185</v>
+      </c>
+      <c r="Q15">
+        <v>26.47656684889166</v>
+      </c>
+      <c r="R15">
+        <v>238.289101640025</v>
+      </c>
+      <c r="S15">
+        <v>0.007792949426342354</v>
+      </c>
+      <c r="T15">
+        <v>0.007923688480101054</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>40.16012566666667</v>
+      </c>
+      <c r="H16">
+        <v>120.480377</v>
+      </c>
+      <c r="I16">
+        <v>0.7255825442851113</v>
+      </c>
+      <c r="J16">
+        <v>0.725750956675978</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>2.9964035</v>
+      </c>
+      <c r="N16">
+        <v>5.992807</v>
+      </c>
+      <c r="O16">
+        <v>0.04881448591690938</v>
+      </c>
+      <c r="P16">
+        <v>0.03308127237950044</v>
+      </c>
+      <c r="Q16">
+        <v>120.3359411080398</v>
+      </c>
+      <c r="R16">
+        <v>722.015646648239</v>
+      </c>
+      <c r="S16">
+        <v>0.03541893888956084</v>
+      </c>
+      <c r="T16">
+        <v>0.02400876507748105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.5</v>
+      </c>
+      <c r="G17">
+        <v>0.0385315</v>
+      </c>
+      <c r="H17">
+        <v>0.07706300000000001</v>
+      </c>
+      <c r="I17">
+        <v>0.000696157776924663</v>
+      </c>
+      <c r="J17">
+        <v>0.0004642129064247607</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.4264516666666667</v>
+      </c>
+      <c r="N17">
+        <v>1.279355</v>
+      </c>
+      <c r="O17">
+        <v>0.00694733498901017</v>
+      </c>
+      <c r="P17">
+        <v>0.007062248329551709</v>
+      </c>
+      <c r="Q17">
+        <v>0.01643182239416667</v>
+      </c>
+      <c r="R17">
+        <v>0.09859093436500001</v>
+      </c>
+      <c r="S17">
+        <v>4.836441281500248E-06</v>
+      </c>
+      <c r="T17">
+        <v>3.27838682295461E-06</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.5</v>
+      </c>
+      <c r="G18">
+        <v>0.0385315</v>
+      </c>
+      <c r="H18">
+        <v>0.07706300000000001</v>
+      </c>
+      <c r="I18">
+        <v>0.000696157776924663</v>
+      </c>
+      <c r="J18">
+        <v>0.0004642129064247607</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>56.94961366666666</v>
+      </c>
+      <c r="N18">
+        <v>170.848841</v>
+      </c>
+      <c r="O18">
+        <v>0.9277676101716374</v>
+      </c>
+      <c r="P18">
+        <v>0.9431134766801204</v>
+      </c>
+      <c r="Q18">
+        <v>2.194354038997167</v>
+      </c>
+      <c r="R18">
+        <v>13.166124233983</v>
+      </c>
+      <c r="S18">
+        <v>0.0006458726369997945</v>
+      </c>
+      <c r="T18">
+        <v>0.0004378054480980395</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.5</v>
+      </c>
+      <c r="G19">
+        <v>0.0385315</v>
+      </c>
+      <c r="H19">
+        <v>0.07706300000000001</v>
+      </c>
+      <c r="I19">
+        <v>0.000696157776924663</v>
+      </c>
+      <c r="J19">
+        <v>0.0004642129064247607</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.3517459999999999</v>
+      </c>
+      <c r="N19">
+        <v>1.055238</v>
+      </c>
+      <c r="O19">
+        <v>0.005730303066102147</v>
+      </c>
+      <c r="P19">
+        <v>0.005825085924375552</v>
+      </c>
+      <c r="Q19">
+        <v>0.013553300999</v>
+      </c>
+      <c r="R19">
+        <v>0.081319805994</v>
+      </c>
+      <c r="S19">
+        <v>3.989195043602251E-06</v>
+      </c>
+      <c r="T19">
+        <v>2.704080067128339E-06</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.5</v>
+      </c>
+      <c r="G20">
+        <v>0.0385315</v>
+      </c>
+      <c r="H20">
+        <v>0.07706300000000001</v>
+      </c>
+      <c r="I20">
+        <v>0.000696157776924663</v>
+      </c>
+      <c r="J20">
+        <v>0.0004642129064247607</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.6592749999999999</v>
+      </c>
+      <c r="N20">
+        <v>1.977825</v>
+      </c>
+      <c r="O20">
+        <v>0.01074026585634092</v>
+      </c>
+      <c r="P20">
+        <v>0.01091791668645185</v>
+      </c>
+      <c r="Q20">
+        <v>0.0254028546625</v>
+      </c>
+      <c r="R20">
+        <v>0.152417127975</v>
+      </c>
+      <c r="S20">
+        <v>7.476919602130158E-06</v>
+      </c>
+      <c r="T20">
+        <v>5.068237837121207E-06</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.5</v>
+      </c>
+      <c r="G21">
+        <v>0.0385315</v>
+      </c>
+      <c r="H21">
+        <v>0.07706300000000001</v>
+      </c>
+      <c r="I21">
+        <v>0.000696157776924663</v>
+      </c>
+      <c r="J21">
+        <v>0.0004642129064247607</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>2.9964035</v>
+      </c>
+      <c r="N21">
+        <v>5.992807</v>
+      </c>
+      <c r="O21">
+        <v>0.04881448591690938</v>
+      </c>
+      <c r="P21">
+        <v>0.03308127237950044</v>
+      </c>
+      <c r="Q21">
+        <v>0.11545592146025</v>
+      </c>
+      <c r="R21">
+        <v>0.461823685841</v>
+      </c>
+      <c r="S21">
+        <v>3.39825839976359E-05</v>
+      </c>
+      <c r="T21">
+        <v>1.535675359951706E-05</v>
       </c>
     </row>
   </sheetData>
